--- a/currentbuild/StructureDefinition-vkp-Observation-Resprate.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Resprate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Resprate.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Resprate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Resprate.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Resprate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -386,7 +386,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -522,7 +522,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -551,7 +551,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -631,7 +631,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>value:coding.code}
@@ -925,7 +925,7 @@
     <t>This identifies the vital sign result type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1134,7 +1134,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1212,7 +1212,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1300,7 +1300,7 @@
     <t>Observation.subject.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1340,7 +1340,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1363,7 +1363,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1748,7 +1748,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t>obs-6
@@ -1780,7 +1780,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1839,7 +1839,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1872,7 +1872,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1884,7 +1884,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1912,7 +1912,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1992,7 +1992,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -2042,7 +2042,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -2075,7 +2075,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -2112,7 +2112,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -2134,7 +2134,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -2596,7 +2596,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="95.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="122.43359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4197,7 +4197,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>178</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>202</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>217</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>231</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>249</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>285</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>322</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>334</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>359</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>385</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>395</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>418</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>440</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>461</v>
       </c>
@@ -11301,7 +11301,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>474</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
         <v>479</v>
       </c>
@@ -12023,7 +12023,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>481</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
         <v>484</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
         <v>497</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
         <v>503</v>
       </c>
@@ -13227,7 +13227,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>524</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
         <v>532</v>
       </c>
@@ -13467,7 +13467,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
         <v>541</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
         <v>549</v>
       </c>
@@ -15877,7 +15877,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="111" hidden="true">
+    <row r="111">
       <c r="A111" t="s" s="2">
         <v>682</v>
       </c>
@@ -16359,7 +16359,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
         <v>692</v>
       </c>
@@ -16481,7 +16481,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="116" hidden="true">
+    <row r="116">
       <c r="A116" t="s" s="2">
         <v>698</v>
       </c>
@@ -16603,7 +16603,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="117" hidden="true">
+    <row r="117">
       <c r="A117" t="s" s="2">
         <v>707</v>
       </c>
@@ -16971,12 +16971,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP119">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/currentbuild/StructureDefinition-vkp-Observation-Resprate.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Resprate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Resprate.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Resprate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Resprate.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Resprate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Resprate.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Resprate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.8</t>
+    <t>0.3.9</t>
   </si>
   <si>
     <t>Name</t>
